--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,7 @@
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="12" customWidth="1" min="39" max="39"/>
     <col width="12" customWidth="1" min="40" max="40"/>
+    <col width="12" customWidth="1" min="41" max="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -682,6 +683,11 @@
           <t>2024/10/18</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -804,6 +810,9 @@
       <c r="AN2" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="AO2" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -926,6 +935,9 @@
       <c r="AN3" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="AO3" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1048,6 +1060,9 @@
       <c r="AN4" s="1" t="n">
         <v>218.2</v>
       </c>
+      <c r="AO4" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1170,6 +1185,9 @@
       <c r="AN5" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="AO5" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1292,6 +1310,9 @@
       <c r="AN6" s="1" t="n">
         <v>257.6</v>
       </c>
+      <c r="AO6" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1414,6 +1435,9 @@
       <c r="AN7" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="AO7" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1536,6 +1560,9 @@
       <c r="AN8" s="1" t="n">
         <v>188.5</v>
       </c>
+      <c r="AO8" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1658,6 +1685,9 @@
       <c r="AN9" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="AO9" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1780,6 +1810,9 @@
       <c r="AN10" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="AO10" s="1" t="n">
+        <v>215.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -1902,6 +1935,9 @@
       <c r="AN11" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="AO11" s="2" t="n">
+        <v>110.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2024,6 +2060,9 @@
       <c r="AN12" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="AO12" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2146,6 +2185,9 @@
       <c r="AN13" s="1" t="n">
         <v>251.6</v>
       </c>
+      <c r="AO13" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2268,6 +2310,9 @@
       <c r="AN14" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="AO14" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2390,6 +2435,9 @@
       <c r="AN15" s="1" t="n">
         <v>260.1</v>
       </c>
+      <c r="AO15" s="2" t="n">
+        <v>116.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2512,6 +2560,9 @@
       <c r="AN16" s="1" t="n">
         <v>194.6</v>
       </c>
+      <c r="AO16" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2634,6 +2685,9 @@
       <c r="AN17" s="1" t="n">
         <v>338.3</v>
       </c>
+      <c r="AO17" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -2756,6 +2810,9 @@
       <c r="AN18" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="AO18" s="1" t="n">
+        <v>143.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -2878,6 +2935,9 @@
       <c r="AN19" s="1" t="n">
         <v>181.6</v>
       </c>
+      <c r="AO19" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3000,6 +3060,9 @@
       <c r="AN20" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="AO20" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3122,6 +3185,9 @@
       <c r="AN21" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="AO21" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3244,6 +3310,9 @@
       <c r="AN22" s="1" t="n">
         <v>186.9</v>
       </c>
+      <c r="AO22" s="1" t="n">
+        <v>162.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3366,6 +3435,9 @@
       <c r="AN23" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="AO23" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3488,6 +3560,9 @@
       <c r="AN24" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="AO24" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -3610,6 +3685,9 @@
       <c r="AN25" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="AO25" s="1" t="n">
+        <v>216.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -3732,6 +3810,9 @@
       <c r="AN26" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="AO26" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -3854,6 +3935,9 @@
       <c r="AN27" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="AO27" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -3976,6 +4060,9 @@
       <c r="AN28" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="AO28" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4098,6 +4185,9 @@
       <c r="AN29" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="AO29" s="1" t="n">
+        <v>199.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4220,6 +4310,9 @@
       <c r="AN30" s="1" t="n">
         <v>221.8</v>
       </c>
+      <c r="AO30" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4342,6 +4435,9 @@
       <c r="AN31" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="AO31" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -4464,6 +4560,9 @@
       <c r="AN32" s="1" t="n">
         <v>205.2</v>
       </c>
+      <c r="AO32" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -4586,6 +4685,9 @@
       <c r="AN33" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="AO33" s="1" t="n">
+        <v>159.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -4708,6 +4810,9 @@
       <c r="AN34" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="AO34" s="2" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -4830,6 +4935,9 @@
       <c r="AN35" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="AO35" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -4952,6 +5060,9 @@
       <c r="AN36" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="AO36" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5074,6 +5185,9 @@
       <c r="AN37" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="AO37" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5196,6 +5310,9 @@
       <c r="AN38" s="1" t="n">
         <v>233.3</v>
       </c>
+      <c r="AO38" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -5318,6 +5435,9 @@
       <c r="AN39" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="AO39" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -5440,6 +5560,9 @@
       <c r="AN40" s="1" t="n">
         <v>339.3</v>
       </c>
+      <c r="AO40" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -5562,6 +5685,9 @@
       <c r="AN41" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="AO41" s="1" t="n">
+        <v>199.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -5684,6 +5810,9 @@
       <c r="AN42" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="AO42" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -5806,6 +5935,9 @@
       <c r="AN43" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="AO43" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -5928,6 +6060,9 @@
       <c r="AN44" s="1" t="n">
         <v>161.9</v>
       </c>
+      <c r="AO44" s="1" t="n">
+        <v>214.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6050,6 +6185,9 @@
       <c r="AN45" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="AO45" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -6172,6 +6310,9 @@
       <c r="AN46" s="1" t="n">
         <v>194.1</v>
       </c>
+      <c r="AO46" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -6294,6 +6435,9 @@
       <c r="AN47" s="1" t="n">
         <v>179.3</v>
       </c>
+      <c r="AO47" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -6416,6 +6560,9 @@
       <c r="AN48" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="AO48" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -6538,6 +6685,9 @@
       <c r="AN49" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="AO49" s="2" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -6660,6 +6810,9 @@
       <c r="AN50" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="AO50" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -6782,6 +6935,9 @@
       <c r="AN51" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="AO51" s="1" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -6904,6 +7060,9 @@
       <c r="AN52" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="AO52" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7025,6 +7184,9 @@
       </c>
       <c r="AN53" s="1" t="n">
         <v>276.8</v>
+      </c>
+      <c r="AO53" s="1" t="n">
+        <v>161.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,7 @@
     <col width="12" customWidth="1" min="39" max="39"/>
     <col width="12" customWidth="1" min="40" max="40"/>
     <col width="12" customWidth="1" min="41" max="41"/>
+    <col width="12" customWidth="1" min="42" max="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -688,6 +689,11 @@
           <t>2024/10/19</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -813,6 +819,9 @@
       <c r="AO2" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="AP2" s="1" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -938,6 +947,9 @@
       <c r="AO3" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="AP3" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1063,6 +1075,9 @@
       <c r="AO4" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="AP4" s="1" t="n">
+        <v>148.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1188,6 +1203,9 @@
       <c r="AO5" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="AP5" s="1" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1313,6 +1331,9 @@
       <c r="AO6" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="AP6" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1438,6 +1459,9 @@
       <c r="AO7" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="AP7" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1563,6 +1587,9 @@
       <c r="AO8" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="AP8" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1688,6 +1715,9 @@
       <c r="AO9" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="AP9" s="1" t="n">
+        <v>247.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1813,6 +1843,9 @@
       <c r="AO10" s="1" t="n">
         <v>215.1</v>
       </c>
+      <c r="AP10" s="1" t="n">
+        <v>178.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -1938,6 +1971,9 @@
       <c r="AO11" s="2" t="n">
         <v>110.5</v>
       </c>
+      <c r="AP11" s="1" t="n">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2063,6 +2099,9 @@
       <c r="AO12" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="AP12" s="2" t="n">
+        <v>101.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2188,6 +2227,9 @@
       <c r="AO13" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="AP13" s="1" t="n">
+        <v>305.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2313,6 +2355,9 @@
       <c r="AO14" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="AP14" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2438,6 +2483,9 @@
       <c r="AO15" s="2" t="n">
         <v>116.2</v>
       </c>
+      <c r="AP15" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2563,6 +2611,9 @@
       <c r="AO16" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="AP16" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2688,6 +2739,9 @@
       <c r="AO17" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="AP17" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -2813,6 +2867,9 @@
       <c r="AO18" s="1" t="n">
         <v>143.7</v>
       </c>
+      <c r="AP18" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -2938,6 +2995,9 @@
       <c r="AO19" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="AP19" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3063,6 +3123,9 @@
       <c r="AO20" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="AP20" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3188,6 +3251,9 @@
       <c r="AO21" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="AP21" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3313,6 +3379,9 @@
       <c r="AO22" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="AP22" s="1" t="n">
+        <v>166.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3438,6 +3507,9 @@
       <c r="AO23" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="AP23" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3563,6 +3635,9 @@
       <c r="AO24" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="AP24" s="1" t="n">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -3688,6 +3763,9 @@
       <c r="AO25" s="1" t="n">
         <v>216.9</v>
       </c>
+      <c r="AP25" s="1" t="n">
+        <v>272.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -3813,6 +3891,9 @@
       <c r="AO26" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="AP26" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -3938,6 +4019,9 @@
       <c r="AO27" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="AP27" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4063,6 +4147,9 @@
       <c r="AO28" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="AP28" s="1" t="n">
+        <v>163.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4188,6 +4275,9 @@
       <c r="AO29" s="1" t="n">
         <v>199.1</v>
       </c>
+      <c r="AP29" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4313,6 +4403,9 @@
       <c r="AO30" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="AP30" s="2" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4438,6 +4531,9 @@
       <c r="AO31" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="AP31" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -4563,6 +4659,9 @@
       <c r="AO32" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="AP32" s="1" t="n">
+        <v>217.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -4688,6 +4787,9 @@
       <c r="AO33" s="1" t="n">
         <v>159.9</v>
       </c>
+      <c r="AP33" s="3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -4813,6 +4915,9 @@
       <c r="AO34" s="2" t="n">
         <v>121.9</v>
       </c>
+      <c r="AP34" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -4938,6 +5043,9 @@
       <c r="AO35" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="AP35" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5063,6 +5171,9 @@
       <c r="AO36" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="AP36" s="1" t="n">
+        <v>233.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5188,6 +5299,9 @@
       <c r="AO37" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="AP37" s="1" t="n">
+        <v>214.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5313,6 +5427,9 @@
       <c r="AO38" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="AP38" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -5438,6 +5555,9 @@
       <c r="AO39" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="AP39" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -5563,6 +5683,9 @@
       <c r="AO40" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="AP40" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -5688,6 +5811,9 @@
       <c r="AO41" s="1" t="n">
         <v>199.6</v>
       </c>
+      <c r="AP41" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -5813,6 +5939,9 @@
       <c r="AO42" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="AP42" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -5938,6 +6067,9 @@
       <c r="AO43" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="AP43" s="1" t="n">
+        <v>246.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6063,6 +6195,9 @@
       <c r="AO44" s="1" t="n">
         <v>214.4</v>
       </c>
+      <c r="AP44" s="2" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6188,6 +6323,9 @@
       <c r="AO45" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="AP45" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -6313,6 +6451,9 @@
       <c r="AO46" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="AP46" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -6438,6 +6579,9 @@
       <c r="AO47" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="AP47" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -6563,6 +6707,9 @@
       <c r="AO48" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="AP48" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -6688,6 +6835,9 @@
       <c r="AO49" s="2" t="n">
         <v>116.4</v>
       </c>
+      <c r="AP49" s="1" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -6813,6 +6963,9 @@
       <c r="AO50" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="AP50" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -6938,6 +7091,9 @@
       <c r="AO51" s="1" t="n">
         <v>177.8</v>
       </c>
+      <c r="AP51" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -7063,6 +7219,9 @@
       <c r="AO52" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="AP52" s="1" t="n">
+        <v>193.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7187,6 +7346,9 @@
       </c>
       <c r="AO53" s="1" t="n">
         <v>161.2</v>
+      </c>
+      <c r="AP53" s="1" t="n">
+        <v>141.5</v>
       </c>
     </row>
   </sheetData>
